--- a/Tests/Phase 5 test cases.xlsx
+++ b/Tests/Phase 5 test cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
-  <si>
-    <t>Atech Computers Website Test Cases</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Functionality</t>
   </si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>It is integrated in our current design but not implemented. It can be implemented in future Version.</t>
   </si>
   <si>
     <t>1) Press "Confirm" button below the product list;
@@ -252,9 +246,6 @@
 "Add to Cart" Not Applicable</t>
   </si>
   <si>
-    <t>"Add to Cart" is integrated in our current design but not implemented. It can be implemented in future Version.</t>
-  </si>
-  <si>
     <t>About Us</t>
   </si>
   <si>
@@ -264,12 +255,18 @@
   <si>
     <t>1) It will direct the user to the About Us page
 2) Layout is correct, No components are missing. Page includes contact information, Address information, short outline of the company, Payment account details.</t>
+  </si>
+  <si>
+    <t>Atech Computers Website Test Cases Phase5</t>
+  </si>
+  <si>
+    <t>Implemented in the next version.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,161 +728,161 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,463 +1198,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+    </row>
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="36"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="20">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="6">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="6">
         <v>10</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="6">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="16">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="2">
         <v>14</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="6">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="6">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="16">
         <v>18</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
-        <v>5</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29">
-        <v>7</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35">
-        <v>8</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="19">
-        <v>9</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="19">
-        <v>10</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="19">
-        <v>11</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="19">
+      <c r="E24" s="31"/>
+      <c r="F24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="29">
-        <v>13</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="13">
-        <v>14</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="19">
-        <v>15</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="19">
-        <v>16</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="19">
-        <v>17</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="29">
-        <v>18</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="405" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48">
-        <v>19</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="52"/>
+      <c r="I24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>